--- a/datos/setup/matriz_procesos.xlsx
+++ b/datos/setup/matriz_procesos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelishka\Documents\repositorios\cuervo\datos\setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelam\Documents\repositorios\cuervo\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F77A90-96A3-4FC3-A5C1-18E9CBCFB574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E090CFF-89B7-4F42-8912-E219B7089455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14340" windowHeight="7215" activeTab="2" xr2:uid="{8873C5BA-C63E-4B30-B9A2-55BB21F5C86C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{8873C5BA-C63E-4B30-B9A2-55BB21F5C86C}"/>
   </bookViews>
   <sheets>
     <sheet name="domestico" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>certificados_crt</t>
   </si>
   <si>
-    <t>formato codigo_barras</t>
-  </si>
-  <si>
     <t>bitacora_hoja_ingreso</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>formato_codigo_barras</t>
   </si>
 </sst>
 </file>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C2507-8616-4B4D-BCA6-FC86C8EE9724}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,10 +482,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -505,25 +505,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -531,16 +531,16 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,48 +585,48 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -646,12 +646,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBAAB75-4D89-4413-B014-422C5F8E73BE}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -671,12 +671,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/datos/setup/matriz_procesos.xlsx
+++ b/datos/setup/matriz_procesos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelam\Documents\repositorios\cuervo\datos\setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodolfo\Documents\Cuervo\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E090CFF-89B7-4F42-8912-E219B7089455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0ADA3C-6615-4C5A-8714-E1AE9EC5F116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{8873C5BA-C63E-4B30-B9A2-55BB21F5C86C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8873C5BA-C63E-4B30-B9A2-55BB21F5C86C}"/>
   </bookViews>
   <sheets>
     <sheet name="domestico" sheetId="1" r:id="rId1"/>
@@ -468,19 +468,19 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -503,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -543,12 +543,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -562,17 +562,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -580,7 +580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -588,7 +588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -604,33 +604,34 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -642,14 +643,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -667,14 +668,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
